--- a/GATEWAY/A1#111#KAPPAMEDXX/KAPPAWEBSRL/KAPPAMED/13.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KAPPAMEDXX/KAPPAWEBSRL/KAPPAMED/13.0/report-checklist.xlsx
@@ -681,16 +681,16 @@
     <t>Nel caso di persistenza dell'errore effettuiamo un collegamento remoto per verificare se è possibile risolvere agendo sulla configurazione del computer del medico. Nell'eventualità di bug o anomalie del programma, viene rilasciata una patch software.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.c6d0f2e794e7a596d6fcb799afee381afca495e3fa949e7676e9bdf9aafda526.997b90118e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>877588851b15faf8</t>
-  </si>
-  <si>
-    <t>7d8b7763e3a001d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.fd9606c239a407aeb19091beebd40bbdb79b76821088066ee9d66e5860b28278.aae74332d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>80a4445fdc139934</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.0d7877233ddc123feba51e9bbc4970315cb48b991483706296d34e049915bfca.c80cc595cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>fe7a32d758163352</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.d70ce693b50dbc18a195d38df9b2b6b015fdf7404ed5ebba70b2b4f04d7eccd4.1bd5a68285^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1402,6 +1402,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,19 +1437,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -2885,7 +2885,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2896,7 @@
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="52" customWidth="1"/>
     <col min="8" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
@@ -2910,7 +2910,7 @@
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="4"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="60"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
@@ -2929,16 +2929,16 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="56"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="60"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
@@ -2957,16 +2957,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="56"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="60"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
@@ -2985,15 +2985,15 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="60"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
@@ -3012,14 +3012,14 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
@@ -3038,11 +3038,11 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
@@ -3065,7 +3065,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="6"/>
-      <c r="G8" s="60"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
@@ -3122,7 +3122,7 @@
       <c r="F9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="49" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -3191,7 +3191,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="62"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="34" t="s">
@@ -3232,7 +3232,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="62"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
@@ -3275,7 +3275,7 @@
       <c r="F12" s="32">
         <v>45680</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="50">
         <v>45680.542361111111</v>
       </c>
       <c r="H12" s="33"/>
@@ -3332,7 +3332,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="62"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
@@ -3373,7 +3373,7 @@
         <v>118</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="62"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34" t="s">
@@ -3414,7 +3414,7 @@
         <v>119</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="62"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34" t="s">
@@ -3455,7 +3455,7 @@
         <v>120</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="62"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34" t="s">
@@ -3496,7 +3496,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="62"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34" t="s">
@@ -3537,7 +3537,7 @@
         <v>122</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="62"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34" t="s">
@@ -3578,7 +3578,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="62"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="34" t="s">
@@ -3619,7 +3619,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="62"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34" t="s">
@@ -3660,7 +3660,7 @@
         <v>124</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="62"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="34" t="s">
@@ -3701,7 +3701,7 @@
         <v>125</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="62"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34" t="s">
@@ -3742,7 +3742,7 @@
         <v>126</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="62"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="34" t="s">
@@ -3783,7 +3783,7 @@
         <v>127</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="62"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="34" t="s">
@@ -3824,7 +3824,7 @@
         <v>128</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="62"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="34" t="s">
@@ -3865,7 +3865,7 @@
         <v>129</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="62"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34" t="s">
@@ -3906,7 +3906,7 @@
         <v>130</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="62"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34" t="s">
@@ -3947,7 +3947,7 @@
         <v>131</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="62"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
@@ -3988,7 +3988,7 @@
         <v>132</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="62"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="34" t="s">
@@ -4029,16 +4029,16 @@
         <v>109</v>
       </c>
       <c r="F30" s="42">
-        <v>45680</v>
-      </c>
-      <c r="G30" s="63">
-        <v>0.6020833333333333</v>
+        <v>45682</v>
+      </c>
+      <c r="G30" s="51">
+        <v>0.42324074074074075</v>
       </c>
       <c r="H30" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="43" t="s">
         <v>144</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="J30" s="44" t="s">
         <v>49</v>
@@ -4076,10 +4076,10 @@
         <v>110</v>
       </c>
       <c r="F31" s="42">
-        <v>45680</v>
-      </c>
-      <c r="G31" s="63">
-        <v>0.60416666666666663</v>
+        <v>45682</v>
+      </c>
+      <c r="G31" s="51">
+        <v>0.42335648148148147</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>145</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="6"/>
-      <c r="G32" s="60"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
-      <c r="G33" s="60"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="34" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="6"/>
-      <c r="G34" s="60"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="35" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="6"/>
-      <c r="G35" s="60"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="36" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="6"/>
-      <c r="G36" s="60"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="37" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
-      <c r="G37" s="60"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="7"/>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="38" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
-      <c r="G38" s="60"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="7"/>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="39" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
-      <c r="G39" s="60"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="7"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="40" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="6"/>
-      <c r="G40" s="60"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="41" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
-      <c r="G41" s="60"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="42" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
-      <c r="G42" s="60"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="43" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
-      <c r="G43" s="60"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="44" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
-      <c r="G44" s="60"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="45" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
-      <c r="G45" s="60"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="46" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
-      <c r="G46" s="60"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="7"/>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="47" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
-      <c r="G47" s="60"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="7"/>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="48" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="6"/>
-      <c r="G48" s="60"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="7"/>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="49" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="6"/>
-      <c r="G49" s="60"/>
+      <c r="G49" s="48"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="50" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="6"/>
-      <c r="G50" s="60"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="51" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
-      <c r="G51" s="60"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="52" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="6"/>
-      <c r="G52" s="60"/>
+      <c r="G52" s="48"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="53" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="6"/>
-      <c r="G53" s="60"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="54" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="6"/>
-      <c r="G54" s="60"/>
+      <c r="G54" s="48"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="55" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
-      <c r="G55" s="60"/>
+      <c r="G55" s="48"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="56" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
-      <c r="G56" s="60"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="57" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
-      <c r="G57" s="60"/>
+      <c r="G57" s="48"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="58" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
-      <c r="G58" s="60"/>
+      <c r="G58" s="48"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="7"/>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="59" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="6"/>
-      <c r="G59" s="60"/>
+      <c r="G59" s="48"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="7"/>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="60" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="6"/>
-      <c r="G60" s="60"/>
+      <c r="G60" s="48"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="7"/>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="61" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="6"/>
-      <c r="G61" s="60"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="62" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="6"/>
-      <c r="G62" s="60"/>
+      <c r="G62" s="48"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="63" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="6"/>
-      <c r="G63" s="60"/>
+      <c r="G63" s="48"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="64" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="6"/>
-      <c r="G64" s="60"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="65" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
-      <c r="G65" s="60"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="66" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="6"/>
-      <c r="G66" s="60"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="67" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="6"/>
-      <c r="G67" s="60"/>
+      <c r="G67" s="48"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="68" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="6"/>
-      <c r="G68" s="60"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="7"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="69" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="6"/>
-      <c r="G69" s="60"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="7"/>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="70" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="6"/>
-      <c r="G70" s="60"/>
+      <c r="G70" s="48"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="7"/>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="71" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="6"/>
-      <c r="G71" s="60"/>
+      <c r="G71" s="48"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="72" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="6"/>
-      <c r="G72" s="60"/>
+      <c r="G72" s="48"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="73" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="6"/>
-      <c r="G73" s="60"/>
+      <c r="G73" s="48"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="74" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="6"/>
-      <c r="G74" s="60"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="75" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="6"/>
-      <c r="G75" s="60"/>
+      <c r="G75" s="48"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="76" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="6"/>
-      <c r="G76" s="60"/>
+      <c r="G76" s="48"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="77" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="6"/>
-      <c r="G77" s="60"/>
+      <c r="G77" s="48"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="78" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="6"/>
-      <c r="G78" s="60"/>
+      <c r="G78" s="48"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="79" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="6"/>
-      <c r="G79" s="60"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="7"/>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="80" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="6"/>
-      <c r="G80" s="60"/>
+      <c r="G80" s="48"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="81" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="6"/>
-      <c r="G81" s="60"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="82" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="6"/>
-      <c r="G82" s="60"/>
+      <c r="G82" s="48"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="83" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="6"/>
-      <c r="G83" s="60"/>
+      <c r="G83" s="48"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="7"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="84" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="6"/>
-      <c r="G84" s="60"/>
+      <c r="G84" s="48"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="7"/>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="85" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="6"/>
-      <c r="G85" s="60"/>
+      <c r="G85" s="48"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="7"/>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="86" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="6"/>
-      <c r="G86" s="60"/>
+      <c r="G86" s="48"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="87" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="6"/>
-      <c r="G87" s="60"/>
+      <c r="G87" s="48"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="7"/>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="88" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="6"/>
-      <c r="G88" s="60"/>
+      <c r="G88" s="48"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="89" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="6"/>
-      <c r="G89" s="60"/>
+      <c r="G89" s="48"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="90" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="6"/>
-      <c r="G90" s="60"/>
+      <c r="G90" s="48"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="91" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="6"/>
-      <c r="G91" s="60"/>
+      <c r="G91" s="48"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="92" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="6"/>
-      <c r="G92" s="60"/>
+      <c r="G92" s="48"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="93" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="6"/>
-      <c r="G93" s="60"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="94" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="6"/>
-      <c r="G94" s="60"/>
+      <c r="G94" s="48"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="7"/>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="95" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="6"/>
-      <c r="G95" s="60"/>
+      <c r="G95" s="48"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="7"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="96" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="6"/>
-      <c r="G96" s="60"/>
+      <c r="G96" s="48"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="97" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="6"/>
-      <c r="G97" s="60"/>
+      <c r="G97" s="48"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="7"/>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="98" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="6"/>
-      <c r="G98" s="60"/>
+      <c r="G98" s="48"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="7"/>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="99" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="6"/>
-      <c r="G99" s="60"/>
+      <c r="G99" s="48"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="7"/>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="100" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="6"/>
-      <c r="G100" s="60"/>
+      <c r="G100" s="48"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="7"/>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="101" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="6"/>
-      <c r="G101" s="60"/>
+      <c r="G101" s="48"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="7"/>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="102" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="6"/>
-      <c r="G102" s="60"/>
+      <c r="G102" s="48"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="7"/>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="103" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="6"/>
-      <c r="G103" s="60"/>
+      <c r="G103" s="48"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="104" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="6"/>
-      <c r="G104" s="60"/>
+      <c r="G104" s="48"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="105" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="6"/>
-      <c r="G105" s="60"/>
+      <c r="G105" s="48"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="106" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="6"/>
-      <c r="G106" s="60"/>
+      <c r="G106" s="48"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="7"/>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="107" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="6"/>
-      <c r="G107" s="60"/>
+      <c r="G107" s="48"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="7"/>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="108" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="6"/>
-      <c r="G108" s="60"/>
+      <c r="G108" s="48"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="7"/>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="109" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="6"/>
-      <c r="G109" s="60"/>
+      <c r="G109" s="48"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="7"/>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="110" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="6"/>
-      <c r="G110" s="60"/>
+      <c r="G110" s="48"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="7"/>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="111" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="6"/>
-      <c r="G111" s="60"/>
+      <c r="G111" s="48"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="7"/>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="112" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="6"/>
-      <c r="G112" s="60"/>
+      <c r="G112" s="48"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="7"/>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="113" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="6"/>
-      <c r="G113" s="60"/>
+      <c r="G113" s="48"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="114" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="6"/>
-      <c r="G114" s="60"/>
+      <c r="G114" s="48"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="115" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="6"/>
-      <c r="G115" s="60"/>
+      <c r="G115" s="48"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="116" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="6"/>
-      <c r="G116" s="60"/>
+      <c r="G116" s="48"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="117" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="6"/>
-      <c r="G117" s="60"/>
+      <c r="G117" s="48"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="7"/>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="118" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F118" s="6"/>
-      <c r="G118" s="60"/>
+      <c r="G118" s="48"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="119" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F119" s="6"/>
-      <c r="G119" s="60"/>
+      <c r="G119" s="48"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="7"/>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="120" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="6"/>
-      <c r="G120" s="60"/>
+      <c r="G120" s="48"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="7"/>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="121" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="6"/>
-      <c r="G121" s="60"/>
+      <c r="G121" s="48"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="7"/>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="122" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="6"/>
-      <c r="G122" s="60"/>
+      <c r="G122" s="48"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="7"/>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="123" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="6"/>
-      <c r="G123" s="60"/>
+      <c r="G123" s="48"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="7"/>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="124" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="6"/>
-      <c r="G124" s="60"/>
+      <c r="G124" s="48"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="7"/>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="125" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="6"/>
-      <c r="G125" s="60"/>
+      <c r="G125" s="48"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="7"/>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="126" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="6"/>
-      <c r="G126" s="60"/>
+      <c r="G126" s="48"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="7"/>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="127" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="6"/>
-      <c r="G127" s="60"/>
+      <c r="G127" s="48"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="7"/>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="128" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="6"/>
-      <c r="G128" s="60"/>
+      <c r="G128" s="48"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="7"/>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="129" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F129" s="6"/>
-      <c r="G129" s="60"/>
+      <c r="G129" s="48"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="7"/>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="130" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F130" s="6"/>
-      <c r="G130" s="60"/>
+      <c r="G130" s="48"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="7"/>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="131" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F131" s="6"/>
-      <c r="G131" s="60"/>
+      <c r="G131" s="48"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="7"/>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="132" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F132" s="6"/>
-      <c r="G132" s="60"/>
+      <c r="G132" s="48"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="7"/>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="133" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F133" s="6"/>
-      <c r="G133" s="60"/>
+      <c r="G133" s="48"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="134" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F134" s="6"/>
-      <c r="G134" s="60"/>
+      <c r="G134" s="48"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="135" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F135" s="6"/>
-      <c r="G135" s="60"/>
+      <c r="G135" s="48"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="136" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F136" s="6"/>
-      <c r="G136" s="60"/>
+      <c r="G136" s="48"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="137" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F137" s="6"/>
-      <c r="G137" s="60"/>
+      <c r="G137" s="48"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="138" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="6"/>
-      <c r="G138" s="60"/>
+      <c r="G138" s="48"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="7"/>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="139" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F139" s="6"/>
-      <c r="G139" s="60"/>
+      <c r="G139" s="48"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="7"/>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="140" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F140" s="6"/>
-      <c r="G140" s="60"/>
+      <c r="G140" s="48"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="7"/>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="141" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F141" s="6"/>
-      <c r="G141" s="60"/>
+      <c r="G141" s="48"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="7"/>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="142" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F142" s="6"/>
-      <c r="G142" s="60"/>
+      <c r="G142" s="48"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="7"/>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="143" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F143" s="6"/>
-      <c r="G143" s="60"/>
+      <c r="G143" s="48"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="7"/>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="144" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F144" s="6"/>
-      <c r="G144" s="60"/>
+      <c r="G144" s="48"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
       <c r="J144" s="7"/>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="145" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F145" s="6"/>
-      <c r="G145" s="60"/>
+      <c r="G145" s="48"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="7"/>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="146" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F146" s="6"/>
-      <c r="G146" s="60"/>
+      <c r="G146" s="48"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="7"/>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="147" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F147" s="6"/>
-      <c r="G147" s="60"/>
+      <c r="G147" s="48"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="7"/>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="148" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F148" s="6"/>
-      <c r="G148" s="60"/>
+      <c r="G148" s="48"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="J148" s="7"/>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="149" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F149" s="6"/>
-      <c r="G149" s="60"/>
+      <c r="G149" s="48"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="7"/>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="150" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F150" s="6"/>
-      <c r="G150" s="60"/>
+      <c r="G150" s="48"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="7"/>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="151" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F151" s="6"/>
-      <c r="G151" s="60"/>
+      <c r="G151" s="48"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="7"/>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="152" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F152" s="6"/>
-      <c r="G152" s="60"/>
+      <c r="G152" s="48"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="7"/>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="153" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F153" s="6"/>
-      <c r="G153" s="60"/>
+      <c r="G153" s="48"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="7"/>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="154" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="6"/>
-      <c r="G154" s="60"/>
+      <c r="G154" s="48"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
       <c r="J154" s="7"/>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="155" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F155" s="6"/>
-      <c r="G155" s="60"/>
+      <c r="G155" s="48"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="7"/>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="156" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F156" s="6"/>
-      <c r="G156" s="60"/>
+      <c r="G156" s="48"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
       <c r="J156" s="7"/>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="157" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="6"/>
-      <c r="G157" s="60"/>
+      <c r="G157" s="48"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="7"/>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="158" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="6"/>
-      <c r="G158" s="60"/>
+      <c r="G158" s="48"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
       <c r="J158" s="7"/>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="159" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F159" s="6"/>
-      <c r="G159" s="60"/>
+      <c r="G159" s="48"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="7"/>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="160" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F160" s="6"/>
-      <c r="G160" s="60"/>
+      <c r="G160" s="48"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="7"/>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="161" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F161" s="6"/>
-      <c r="G161" s="60"/>
+      <c r="G161" s="48"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="7"/>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="162" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F162" s="6"/>
-      <c r="G162" s="60"/>
+      <c r="G162" s="48"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="7"/>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="163" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F163" s="6"/>
-      <c r="G163" s="60"/>
+      <c r="G163" s="48"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="7"/>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="164" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F164" s="6"/>
-      <c r="G164" s="60"/>
+      <c r="G164" s="48"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="7"/>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="165" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F165" s="6"/>
-      <c r="G165" s="60"/>
+      <c r="G165" s="48"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="7"/>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="166" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F166" s="6"/>
-      <c r="G166" s="60"/>
+      <c r="G166" s="48"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="7"/>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="167" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="6"/>
-      <c r="G167" s="60"/>
+      <c r="G167" s="48"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="7"/>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F168" s="6"/>
-      <c r="G168" s="60"/>
+      <c r="G168" s="48"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="7"/>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F169" s="6"/>
-      <c r="G169" s="60"/>
+      <c r="G169" s="48"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="7"/>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F170" s="6"/>
-      <c r="G170" s="60"/>
+      <c r="G170" s="48"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="J170" s="7"/>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F171" s="6"/>
-      <c r="G171" s="60"/>
+      <c r="G171" s="48"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="7"/>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="172" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F172" s="6"/>
-      <c r="G172" s="60"/>
+      <c r="G172" s="48"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="173" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F173" s="6"/>
-      <c r="G173" s="60"/>
+      <c r="G173" s="48"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="7"/>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="174" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F174" s="6"/>
-      <c r="G174" s="60"/>
+      <c r="G174" s="48"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="J174" s="7"/>
@@ -10756,6 +10756,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -10765,15 +10774,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10796,6 +10796,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10810,12 +10818,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>